--- a/biology/Botanique/Saule_de_Barclay/Saule_de_Barclay.xlsx
+++ b/biology/Botanique/Saule_de_Barclay/Saule_de_Barclay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix barclayi ou Barclay's willow, le Saule de Barclay, est une espèce de saules de la famille des Salicaceae, originaire d'Amérique du Nord, découverte au nord ouest des États-Unis et au Canada[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix barclayi ou Barclay's willow, le Saule de Barclay, est une espèce de saules de la famille des Salicaceae, originaire d'Amérique du Nord, découverte au nord ouest des États-Unis et au Canada.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix barclayi var. angustifolia,
 Salix barclayi var. conjuncta,
 Salix barclayi var. latiuscula,
-Salix pyrolifolia var. hoyeriana[2].</t>
+Salix pyrolifolia var. hoyeriana.</t>
         </is>
       </c>
     </row>
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix barclayi pousse près des lacs  et des cours d'eau d'altitude. C'est un buisson qui atteint 2,5 m de haut et relativement élancé.
 Les feuilles d'ovales à elliptiques font de 2  à   6 cm de long et 1  à   2,5 cm de large. Elles sont recouvertes de pilosité lorsqu'elles sont jeunes ; la nervure centrale est recouverte de poils jusqu'à maturité. Les chatons sont courts, avec un pédoncule feuillu.
-Les chatons mâles mesurent 3 cm de long et présentent 2 étamines ; tandis que les chatons femelles, avec leurs pistils mesurent 2,5  à   5 cm de long et sont glabres[3].
+Les chatons mâles mesurent 3 cm de long et présentent 2 étamines ; tandis que les chatons femelles, avec leurs pistils mesurent 2,5  à   5 cm de long et sont glabres.
 </t>
         </is>
       </c>
